--- a/Output/results.xlsx
+++ b/Output/results.xlsx
@@ -1,85 +1,94 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juancordero/Desktop/My_GitHub/Master_Research/Output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0D3339-FEFD-224D-94BF-8B694D1412FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="u_ferreira" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="u_ferreira" sheetId="1" r:id="rId1"/>
+    <sheet name="u_loretan" sheetId="2" r:id="rId2"/>
+    <sheet name="u_dumounchel" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantiles S&amp;P500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VaR S&amp;P500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES S&amp;P500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantiles BTC/USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VaR BTC/USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES BTC/USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantiles GBP/USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VaR GBP/USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES GBP/USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantiles GOLD/USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VaR GOLD/USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES GOLD/USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantiles Crude Oil Brent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VaR Crude Oil Brent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES Crude Oil Brent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Quantiles S&amp;P500</t>
+  </si>
+  <si>
+    <t>VaR S&amp;P500</t>
+  </si>
+  <si>
+    <t>ES S&amp;P500</t>
+  </si>
+  <si>
+    <t>Quantiles BTC/USD</t>
+  </si>
+  <si>
+    <t>VaR BTC/USD</t>
+  </si>
+  <si>
+    <t>ES BTC/USD</t>
+  </si>
+  <si>
+    <t>Quantiles GBP/USD</t>
+  </si>
+  <si>
+    <t>VaR GBP/USD</t>
+  </si>
+  <si>
+    <t>ES GBP/USD</t>
+  </si>
+  <si>
+    <t>Quantiles GOLD/USD</t>
+  </si>
+  <si>
+    <t>VaR GOLD/USD</t>
+  </si>
+  <si>
+    <t>ES GOLD/USD</t>
+  </si>
+  <si>
+    <t>Quantiles Crude Oil Brent</t>
+  </si>
+  <si>
+    <t>VaR Crude Oil Brent</t>
+  </si>
+  <si>
+    <t>ES Crude Oil Brent</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -115,6 +124,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,14 +414,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,208 +486,736 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="n">
-        <v>2.78061871581001</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-2.91144467076761</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-3.76583989840682</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.85497438177422</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-10.916704588851</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-15.6960156066818</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.52647193073964</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-1.46325778156676</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-1.8981403316195</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.80665602105918</v>
-      </c>
-      <c r="L2" t="n">
-        <v>-2.58868219869749</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-3.42339253577081</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.83063510446846</v>
-      </c>
-      <c r="O2" t="n">
-        <v>-7.0801851482016</v>
-      </c>
-      <c r="P2" t="n">
-        <v>-9.27045907941783</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2">
+        <v>2.8024402887569599</v>
+      </c>
+      <c r="C2">
+        <v>-2.9586123955676298</v>
+      </c>
+      <c r="D2">
+        <v>-3.89727432459933</v>
+      </c>
+      <c r="E2">
+        <v>2.4092455193597799</v>
+      </c>
+      <c r="F2">
+        <v>-11.4929695124003</v>
+      </c>
+      <c r="G2">
+        <v>-19.8616618926238</v>
+      </c>
+      <c r="H2">
+        <v>2.5418574796291802</v>
+      </c>
+      <c r="I2">
+        <v>-1.4601512760998601</v>
+      </c>
+      <c r="J2">
+        <v>-1.91245357367513</v>
+      </c>
+      <c r="K2">
+        <v>2.7944064711344501</v>
+      </c>
+      <c r="L2">
+        <v>-2.5448819547326198</v>
+      </c>
+      <c r="M2">
+        <v>-3.3991467036935701</v>
+      </c>
+      <c r="N2">
+        <v>2.8246471959758899</v>
+      </c>
+      <c r="O2">
+        <v>-7.1096562536926502</v>
+      </c>
+      <c r="P2">
+        <v>-9.4484557971961198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.0668683751667048</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.03048877552933</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.5963887406127</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0258774829106878</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.77477265039233</v>
-      </c>
-      <c r="G3" t="n">
-        <v>4.2407978680495</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0187893349332611</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.433431531421677</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.574152600891968</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0186881011577922</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.712807979934535</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.941379108888283</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.0920691690275799</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3.81179687155469</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5.03511471817941</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3">
+        <v>4.8950596584427498E-2</v>
+      </c>
+      <c r="C3">
+        <v>2.18604968026166</v>
+      </c>
+      <c r="D3">
+        <v>2.8387357938519102</v>
+      </c>
+      <c r="E3">
+        <v>6.8268829209568699E-2</v>
+      </c>
+      <c r="F3">
+        <v>3.6774552240539</v>
+      </c>
+      <c r="G3">
+        <v>7.0678754980082799</v>
+      </c>
+      <c r="H3">
+        <v>2.15003467574203E-2</v>
+      </c>
+      <c r="I3">
+        <v>0.39135904401747301</v>
+      </c>
+      <c r="J3">
+        <v>0.51712177170061102</v>
+      </c>
+      <c r="K3">
+        <v>1.60325992862103E-2</v>
+      </c>
+      <c r="L3">
+        <v>0.74294730428101496</v>
+      </c>
+      <c r="M3">
+        <v>0.99310792248300295</v>
+      </c>
+      <c r="N3">
+        <v>7.3320906143015493E-2</v>
+      </c>
+      <c r="O3">
+        <v>3.7061936769174602</v>
+      </c>
+      <c r="P3">
+        <v>4.9734918777365698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="n">
-        <v>2.61813838758359</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-20.8224360907898</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-26.295132512209</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.79581294249632</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-22.5623224036999</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-33.8161634649853</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.48646507910248</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-3.4296210024754</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-4.46487804433712</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.75592000030611</v>
-      </c>
-      <c r="L4" t="n">
-        <v>-6.55918325864913</v>
-      </c>
-      <c r="M4" t="n">
-        <v>-8.59966573432931</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.64811890175715</v>
-      </c>
-      <c r="O4" t="n">
-        <v>-27.5538537430419</v>
-      </c>
-      <c r="P4" t="n">
-        <v>-35.8867134253863</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4">
+        <v>2.6801748203304698</v>
+      </c>
+      <c r="C4">
+        <v>-21.914316767044401</v>
+      </c>
+      <c r="D4">
+        <v>-27.8945929607194</v>
+      </c>
+      <c r="E4">
+        <v>2.2281281027178901</v>
+      </c>
+      <c r="F4">
+        <v>-24.239847707972501</v>
+      </c>
+      <c r="G4">
+        <v>-43.920431999408102</v>
+      </c>
+      <c r="H4">
+        <v>2.4987605357762201</v>
+      </c>
+      <c r="I4">
+        <v>-2.8865982014832099</v>
+      </c>
+      <c r="J4">
+        <v>-3.7967251274879001</v>
+      </c>
+      <c r="K4">
+        <v>2.7426175245293001</v>
+      </c>
+      <c r="L4">
+        <v>-6.2443475731487501</v>
+      </c>
+      <c r="M4">
+        <v>-8.2710349462528008</v>
+      </c>
+      <c r="N4">
+        <v>2.6549441759274002</v>
+      </c>
+      <c r="O4">
+        <v>-25.9552823416604</v>
+      </c>
+      <c r="P4">
+        <v>-34.272091464025401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="n">
-        <v>2.86327419441095</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-0.943742129615547</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-1.19387905216896</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.90582390838137</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-6.12317047229041</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-8.38799438335641</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.55924463244283</v>
-      </c>
-      <c r="I5" t="n">
-        <v>-0.85676558810297</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-1.10234841264482</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.84318272221333</v>
-      </c>
-      <c r="L5" t="n">
-        <v>-1.65981360018264</v>
-      </c>
-      <c r="M5" t="n">
-        <v>-2.17489743955376</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.97145057811379</v>
-      </c>
-      <c r="O5" t="n">
-        <v>-2.75683249683094</v>
-      </c>
-      <c r="P5" t="n">
-        <v>-3.56398744080072</v>
+      <c r="B5">
+        <v>2.87561939641816</v>
+      </c>
+      <c r="C5">
+        <v>-0.80574262820342801</v>
+      </c>
+      <c r="D5">
+        <v>-1.03087488349791</v>
+      </c>
+      <c r="E5">
+        <v>2.5921508508107198</v>
+      </c>
+      <c r="F5">
+        <v>-3.3924600358763199</v>
+      </c>
+      <c r="G5">
+        <v>-5.5248141582101198</v>
+      </c>
+      <c r="H5">
+        <v>2.59494173653983</v>
+      </c>
+      <c r="I5">
+        <v>-0.89635247118678696</v>
+      </c>
+      <c r="J5">
+        <v>-1.17044536191717</v>
+      </c>
+      <c r="K5">
+        <v>2.8338523222234699</v>
+      </c>
+      <c r="L5">
+        <v>-1.48672806655472</v>
+      </c>
+      <c r="M5">
+        <v>-1.97458583595014</v>
+      </c>
+      <c r="N5">
+        <v>2.94619211697318</v>
+      </c>
+      <c r="O5">
+        <v>-2.8538625743766999</v>
+      </c>
+      <c r="P5">
+        <v>-3.6499326942020298</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>2.7983531814273399</v>
+      </c>
+      <c r="C2">
+        <v>-2.9541949574604902</v>
+      </c>
+      <c r="D2">
+        <v>-3.8963276822047499</v>
+      </c>
+      <c r="E2">
+        <v>2.40441155343371</v>
+      </c>
+      <c r="F2">
+        <v>-11.4657834306712</v>
+      </c>
+      <c r="G2">
+        <v>-19.540842772900501</v>
+      </c>
+      <c r="H2">
+        <v>2.5345124341810799</v>
+      </c>
+      <c r="I2">
+        <v>-1.4564948492633401</v>
+      </c>
+      <c r="J2">
+        <v>-1.9095021396690901</v>
+      </c>
+      <c r="K2">
+        <v>2.78289971291824</v>
+      </c>
+      <c r="L2">
+        <v>-2.53509696628951</v>
+      </c>
+      <c r="M2">
+        <v>-3.3947411344453502</v>
+      </c>
+      <c r="N2">
+        <v>2.7969242776668799</v>
+      </c>
+      <c r="O2">
+        <v>-7.0390989579544598</v>
+      </c>
+      <c r="P2">
+        <v>-9.3889151407042597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>4.9773756137934798E-2</v>
+      </c>
+      <c r="C3">
+        <v>2.17946034536266</v>
+      </c>
+      <c r="D3">
+        <v>2.83761506964753</v>
+      </c>
+      <c r="E3">
+        <v>5.1565336455802302E-2</v>
+      </c>
+      <c r="F3">
+        <v>3.6398402532264802</v>
+      </c>
+      <c r="G3">
+        <v>6.8369799075534701</v>
+      </c>
+      <c r="H3">
+        <v>2.6922065944421699E-2</v>
+      </c>
+      <c r="I3">
+        <v>0.39323976820448903</v>
+      </c>
+      <c r="J3">
+        <v>0.51837277448030805</v>
+      </c>
+      <c r="K3">
+        <v>1.5704836696753301E-2</v>
+      </c>
+      <c r="L3">
+        <v>0.74231747868690101</v>
+      </c>
+      <c r="M3">
+        <v>0.99067429774842097</v>
+      </c>
+      <c r="N3">
+        <v>5.8109999209190397E-2</v>
+      </c>
+      <c r="O3">
+        <v>3.6760674852546602</v>
+      </c>
+      <c r="P3">
+        <v>4.9532205159892904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>2.6816374634490501</v>
+      </c>
+      <c r="C4">
+        <v>-21.813938075954201</v>
+      </c>
+      <c r="D4">
+        <v>-27.886526306056901</v>
+      </c>
+      <c r="E4">
+        <v>2.2688578008885898</v>
+      </c>
+      <c r="F4">
+        <v>-24.051908151263799</v>
+      </c>
+      <c r="G4">
+        <v>-43.227744531347199</v>
+      </c>
+      <c r="H4">
+        <v>2.48607133986929</v>
+      </c>
+      <c r="I4">
+        <v>-2.8912115799669098</v>
+      </c>
+      <c r="J4">
+        <v>-3.8016392677200299</v>
+      </c>
+      <c r="K4">
+        <v>2.7436495070940401</v>
+      </c>
+      <c r="L4">
+        <v>-6.21273877662464</v>
+      </c>
+      <c r="M4">
+        <v>-8.2561098602678804</v>
+      </c>
+      <c r="N4">
+        <v>2.6590778494004801</v>
+      </c>
+      <c r="O4">
+        <v>-25.764013937161199</v>
+      </c>
+      <c r="P4">
+        <v>-34.1198159078968</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>2.87842895192068</v>
+      </c>
+      <c r="C5">
+        <v>-0.803009939569715</v>
+      </c>
+      <c r="D5">
+        <v>-1.0305284666851</v>
+      </c>
+      <c r="E5">
+        <v>2.5498663202711001</v>
+      </c>
+      <c r="F5">
+        <v>-3.4069213325497301</v>
+      </c>
+      <c r="G5">
+        <v>-5.4703138149591197</v>
+      </c>
+      <c r="H5">
+        <v>2.59553721440472</v>
+      </c>
+      <c r="I5">
+        <v>-0.89363615904194105</v>
+      </c>
+      <c r="J5">
+        <v>-1.16839632663652</v>
+      </c>
+      <c r="K5">
+        <v>2.8211871408175799</v>
+      </c>
+      <c r="L5">
+        <v>-1.4782805452468999</v>
+      </c>
+      <c r="M5">
+        <v>-1.9744010788566899</v>
+      </c>
+      <c r="N5">
+        <v>2.8983073433300701</v>
+      </c>
+      <c r="O5">
+        <v>-2.86144725871719</v>
+      </c>
+      <c r="P5">
+        <v>-3.6488138912100001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:P5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>2.8897815018739901</v>
+      </c>
+      <c r="C2">
+        <v>-3.0538872183729202</v>
+      </c>
+      <c r="D2">
+        <v>-3.89705422912207</v>
+      </c>
+      <c r="E2">
+        <v>2.4750273488643399</v>
+      </c>
+      <c r="F2">
+        <v>-11.8096156368754</v>
+      </c>
+      <c r="G2">
+        <v>-18.589289791181599</v>
+      </c>
+      <c r="H2">
+        <v>2.6645584805756499</v>
+      </c>
+      <c r="I2">
+        <v>-1.53006963462972</v>
+      </c>
+      <c r="J2">
+        <v>-1.9532122821672599</v>
+      </c>
+      <c r="K2">
+        <v>2.82269664721494</v>
+      </c>
+      <c r="L2">
+        <v>-2.5723322803635198</v>
+      </c>
+      <c r="M2">
+        <v>-3.3877901686034702</v>
+      </c>
+      <c r="N2">
+        <v>2.8537498008034099</v>
+      </c>
+      <c r="O2">
+        <v>-7.1834148617540396</v>
+      </c>
+      <c r="P2">
+        <v>-9.2838718436421299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>7.0742129606381293E-2</v>
+      </c>
+      <c r="C3">
+        <v>2.2447524727764701</v>
+      </c>
+      <c r="D3">
+        <v>2.8390543530940802</v>
+      </c>
+      <c r="E3">
+        <v>6.6169748466983994E-2</v>
+      </c>
+      <c r="F3">
+        <v>3.7683858866342801</v>
+      </c>
+      <c r="G3">
+        <v>6.2967644686420003</v>
+      </c>
+      <c r="H3">
+        <v>2.4514063265157E-2</v>
+      </c>
+      <c r="I3">
+        <v>0.408941336490731</v>
+      </c>
+      <c r="J3">
+        <v>0.52737618766750105</v>
+      </c>
+      <c r="K3">
+        <v>1.48456712092313E-2</v>
+      </c>
+      <c r="L3">
+        <v>0.75125502015557499</v>
+      </c>
+      <c r="M3">
+        <v>0.98518569477242601</v>
+      </c>
+      <c r="N3">
+        <v>6.1731948395954403E-2</v>
+      </c>
+      <c r="O3">
+        <v>3.75723216404046</v>
+      </c>
+      <c r="P3">
+        <v>4.8971373212197502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>2.7567685386174499</v>
+      </c>
+      <c r="C4">
+        <v>-22.373871893378801</v>
+      </c>
+      <c r="D4">
+        <v>-27.965604766799299</v>
+      </c>
+      <c r="E4">
+        <v>2.3010601736179699</v>
+      </c>
+      <c r="F4">
+        <v>-24.995212907654899</v>
+      </c>
+      <c r="G4">
+        <v>-40.0939638458551</v>
+      </c>
+      <c r="H4">
+        <v>2.6191490234606198</v>
+      </c>
+      <c r="I4">
+        <v>-3.02393133180514</v>
+      </c>
+      <c r="J4">
+        <v>-3.87453211952581</v>
+      </c>
+      <c r="K4">
+        <v>2.7808824562258501</v>
+      </c>
+      <c r="L4">
+        <v>-6.2805477686272004</v>
+      </c>
+      <c r="M4">
+        <v>-8.2236511455695993</v>
+      </c>
+      <c r="N4">
+        <v>2.71035324233732</v>
+      </c>
+      <c r="O4">
+        <v>-26.287519445368702</v>
+      </c>
+      <c r="P4">
+        <v>-33.834621469677899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>2.9929188655958101</v>
+      </c>
+      <c r="C5">
+        <v>-0.82614827719934403</v>
+      </c>
+      <c r="D5">
+        <v>-1.03635468399745</v>
+      </c>
+      <c r="E5">
+        <v>2.6569288381113698</v>
+      </c>
+      <c r="F5">
+        <v>-3.4951801387372199</v>
+      </c>
+      <c r="G5">
+        <v>-5.3170710151718996</v>
+      </c>
+      <c r="H5">
+        <v>2.7215614730693898</v>
+      </c>
+      <c r="I5">
+        <v>-0.94589823304966603</v>
+      </c>
+      <c r="J5">
+        <v>-1.20456261917203</v>
+      </c>
+      <c r="K5">
+        <v>2.8482328633164702</v>
+      </c>
+      <c r="L5">
+        <v>-1.4875646881797799</v>
+      </c>
+      <c r="M5">
+        <v>-1.97236739446635</v>
+      </c>
+      <c r="N5">
+        <v>2.95123761590221</v>
+      </c>
+      <c r="O5">
+        <v>-2.9106718080133702</v>
+      </c>
+      <c r="P5">
+        <v>-3.6342545348262898</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>